--- a/reports/corpus_dwi-unigram_bigram-fold-1.xlsx
+++ b/reports/corpus_dwi-unigram_bigram-fold-1.xlsx
@@ -616,28 +616,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9659090909090909</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9866666666666667</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7441860465116279</v>
+        <v>0.9418604651162791</v>
       </c>
       <c r="G2" t="n">
         <v>0.1666666666666667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -646,76 +646,76 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.949685534591195</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9366197183098591</v>
+        <v>0.9647887323943662</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3726415094339622</v>
+        <v>0.6509433962264151</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9240506329113924</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9869402985074627</v>
+        <v>0.9738805970149254</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0.4</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8440366972477065</v>
+        <v>0.9495412844036697</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.8009049773755657</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8068181818181818</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9401709401709402</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2320675105485232</v>
+        <v>0.5021097046413502</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.402135231316726</v>
+        <v>0.6120996441281139</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7194486983154671</v>
+        <v>0.8294027565084227</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.4902371538131668</v>
+        <v>0.6267865751720141</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.8627958240672171</v>
+        <v>0.8861473752420054</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="G3" t="n">
         <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -764,25 +764,25 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9708029197080292</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9080459770114943</v>
+        <v>0.9139072847682119</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.972972972972973</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9605263157894737</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3816738816738817</v>
+        <v>0.5240963855421686</v>
       </c>
       <c r="T3" t="n">
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9431818181818182</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9945945945945946</v>
+        <v>0.9904306220095693</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9888268156424581</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9726027397260274</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="AB3" t="n">
         <v>0</v>
@@ -812,22 +812,22 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.7051282051282052</v>
+        <v>0.8206896551724138</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.9495798319327731</v>
+        <v>0.9398907103825137</v>
       </c>
       <c r="AG3" t="n">
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.7194486983154671</v>
+        <v>0.8294027565084227</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6942367530954899</v>
+        <v>0.7281823927555841</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.7194486983154671</v>
+        <v>0.8294027565084227</v>
       </c>
     </row>
     <row r="4">
@@ -840,28 +840,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9826589595375723</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9932885906040269</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.9364161849710984</v>
       </c>
       <c r="G4" t="n">
         <v>0.25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7741935483870968</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6399999999999999</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,76 +870,76 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9741935483870968</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9534050179211471</v>
+        <v>0.9681978798586572</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5284280936454849</v>
+        <v>0.7603305785123966</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.975609756097561</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.6814621409921672</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.6434108527131783</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.9523809523809523</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9695550351288056</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="Z4" t="n">
         <v>0.923076923076923</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.9419354838709677</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.5504682622268471</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.5619834710743801</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.9131513647642679</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.7576601671309193</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.8819875776397516</v>
-      </c>
       <c r="AA4" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.9649122807017545</v>
       </c>
       <c r="AB4" t="n">
         <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.6230366492146597</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.5650000000000001</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.7659574468085107</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7194486983154671</v>
+        <v>0.8294027565084227</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5485446521265747</v>
+        <v>0.6588373832602251</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.7169255206794322</v>
+        <v>0.8287828224825211</v>
       </c>
     </row>
     <row r="5">
@@ -952,28 +952,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F5" t="n">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -982,70 +982,70 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
+        <v>156</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>141</v>
+      </c>
+      <c r="P5" t="n">
         <v>151</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>137</v>
-      </c>
-      <c r="P5" t="n">
-        <v>87</v>
-      </c>
       <c r="Q5" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="R5" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="S5" t="n">
-        <v>1386</v>
+        <v>996</v>
       </c>
       <c r="T5" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U5" t="n">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="Y5" t="n">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="Z5" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AA5" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="AF5" t="n">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7194486983154671</v>
+        <v>0.8294027565084227</v>
       </c>
       <c r="AI5" t="n">
         <v>3265</v>

--- a/reports/corpus_dwi-unigram_bigram-fold-1.xlsx
+++ b/reports/corpus_dwi-unigram_bigram-fold-1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,173 +434,157 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>CDC</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CDC</t>
+          <t>CDI</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>CDI</t>
+          <t>CDO</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>CDO</t>
+          <t>CDP</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>CDP</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CON</t>
+          <t>FW</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>JJ</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FW</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>NN</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>NNG</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NNP</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>NN</t>
+          <t>PRL</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>NNG</t>
+          <t>PRN</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>NNP</t>
+          <t>PRP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>PRL</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>PRN</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>PRP</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>SYM</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>RP</t>
+          <t>UH</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VBI</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>SYM</t>
+          <t>VBT</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>UH</t>
+          <t>WP</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>VBGT</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>VBI</t>
+          <t>macro avg</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>VBT</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>macro avg</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>weighted avg</t>
         </is>
@@ -613,7 +597,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -622,100 +606,88 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0.9651162790697675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9418604651162791</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.9647887323943662</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9811320754716981</v>
+        <v>0.6509433962264151</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9647887323943662</v>
+        <v>0.9873417721518988</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6509433962264151</v>
+        <v>0.9739292364990689</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.975609756097561</v>
+        <v>0.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9873417721518988</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9738805970149254</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.488235294117647</v>
+        <v>0.9495412844036697</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8009049773755657</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="X2" t="n">
-        <v>0.9495412844036697</v>
+        <v>0.9401709401709402</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8009049773755657</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.9401709401709402</v>
+        <v>0.5021097046413502</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>0.6134751773049646</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>0.8309341500765697</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.5021097046413502</v>
+        <v>0.7172296825789944</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.6120996441281139</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.9655172413793104</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.8294027565084227</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.6267865751720141</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.8861473752420054</v>
+        <v>0.8874574718403125</v>
       </c>
     </row>
     <row r="3">
@@ -725,7 +697,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -734,100 +706,88 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9325842696629213</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.5</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.9716312056737588</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.9139072847682119</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9716312056737588</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9139072847682119</v>
+        <v>0.5251004016064257</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.975609756097561</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
+        <v>0.9431818181818182</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.9904306220095693</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.9888268156424581</v>
+      </c>
+      <c r="W3" t="n">
         <v>0.9629629629629629</v>
       </c>
-      <c r="S3" t="n">
-        <v>0.5240963855421686</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.9431818181818182</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>0.9904306220095693</v>
+        <v>0.990990990990991</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.9888268156424581</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9629629629629629</v>
+        <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.990990990990991</v>
+        <v>0.8206896551724138</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>0.9453551912568307</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>0.8309341500765697</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8206896551724138</v>
+        <v>0.8333658962830001</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.9398907103825137</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0.8294027565084227</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.7281823927555841</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.8294027565084227</v>
+        <v>0.8309341500765697</v>
       </c>
     </row>
     <row r="4">
@@ -837,7 +797,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -846,100 +806,88 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9485714285714285</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9364161849710984</v>
+        <v>0.25</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="H4" t="n">
-        <v>0.918918918918919</v>
+        <v>0.8</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9904761904761905</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9681978798586572</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9904761904761905</v>
+        <v>0.7603305785123966</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.9879518072289156</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9681978798586572</v>
+        <v>0.975</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7603305785123966</v>
+        <v>0.6823222439660795</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.975609756097561</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="R4" t="n">
-        <v>0.975</v>
+        <v>0.6434108527131783</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6814621409921672</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="T4" t="n">
-        <v>0.5714285714285715</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6434108527131783</v>
+        <v>0.9695550351288056</v>
       </c>
       <c r="V4" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.885</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.923076923076923</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9695550351288056</v>
+        <v>0.9649122807017545</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.885</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.923076923076923</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9649122807017545</v>
+        <v>0.6230366492146597</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>0.7440860215053765</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.8309341500765697</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.6230366492146597</v>
+        <v>0.7539592990426197</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0.9824561403508771</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0.8294027565084227</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.6588373832602251</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.8287828224825211</v>
+        <v>0.8302568389759832</v>
       </c>
     </row>
     <row r="5">
@@ -949,108 +897,96 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="C5" t="n">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>300</v>
       </c>
       <c r="E5" t="n">
-        <v>300</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
+        <v>18</v>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>156</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>141</v>
+      </c>
+      <c r="M5" t="n">
+        <v>151</v>
+      </c>
+      <c r="N5" t="n">
+        <v>41</v>
+      </c>
+      <c r="O5" t="n">
+        <v>81</v>
+      </c>
+      <c r="P5" t="n">
+        <v>996</v>
+      </c>
+      <c r="Q5" t="n">
         <v>18</v>
       </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>34</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>156</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>141</v>
-      </c>
-      <c r="P5" t="n">
-        <v>151</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>41</v>
-      </c>
       <c r="R5" t="n">
+        <v>88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>20</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>209</v>
+      </c>
+      <c r="V5" t="n">
+        <v>179</v>
+      </c>
+      <c r="W5" t="n">
         <v>81</v>
       </c>
-      <c r="S5" t="n">
-        <v>996</v>
-      </c>
-      <c r="T5" t="n">
-        <v>18</v>
-      </c>
-      <c r="U5" t="n">
-        <v>88</v>
-      </c>
-      <c r="V5" t="n">
-        <v>20</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="Y5" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>0.8309341500765697</v>
       </c>
       <c r="AE5" t="n">
-        <v>145</v>
+        <v>3265</v>
       </c>
       <c r="AF5" t="n">
-        <v>183</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.8294027565084227</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>3265</v>
-      </c>
-      <c r="AJ5" t="n">
         <v>3265</v>
       </c>
     </row>
